--- a/Team-Data/2008-09/11-10-2008-09.xlsx
+++ b/Team-Data/2008-09/11-10-2008-09.xlsx
@@ -811,10 +811,10 @@
         <v>10.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF2" t="n">
         <v>1</v>
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ2" t="n">
         <v>6</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
         <v>3</v>
@@ -841,7 +841,7 @@
         <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>30</v>
@@ -871,19 +871,19 @@
         <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA2" t="n">
         <v>23</v>
       </c>
       <c r="BB2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="n">
         <v>2</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
         <v>6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.833</v>
+        <v>0.857</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="J3" t="n">
-        <v>77.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.444</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M3" t="n">
         <v>13.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.293</v>
+        <v>0.281</v>
       </c>
       <c r="O3" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P3" t="n">
-        <v>29</v>
+        <v>29.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.73</v>
+        <v>0.712</v>
       </c>
       <c r="R3" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="S3" t="n">
-        <v>35.3</v>
+        <v>34</v>
       </c>
       <c r="T3" t="n">
-        <v>47.3</v>
+        <v>45.7</v>
       </c>
       <c r="U3" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="V3" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X3" t="n">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.5</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.8</v>
+        <v>93.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1014,37 +1014,37 @@
         <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM3" t="n">
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -1053,19 +1053,19 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BC3" t="n">
         <v>5</v>
@@ -1175,16 +1175,16 @@
         <v>-5.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>11</v>
@@ -1205,31 +1205,31 @@
         <v>28</v>
       </c>
       <c r="AN4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR4" t="n">
         <v>10</v>
       </c>
       <c r="AS4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT4" t="n">
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
         <v>17</v>
@@ -1241,10 +1241,10 @@
         <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB4" t="n">
         <v>28</v>
@@ -1279,160 +1279,160 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>0.333</v>
+        <v>0.429</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="J5" t="n">
-        <v>82.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.408</v>
+        <v>0.42</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.378</v>
+        <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>20.2</v>
+        <v>22</v>
       </c>
       <c r="P5" t="n">
-        <v>25.3</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.796</v>
+        <v>0.786</v>
       </c>
       <c r="R5" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="S5" t="n">
-        <v>30.7</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>43.5</v>
+        <v>43</v>
       </c>
       <c r="U5" t="n">
-        <v>17.2</v>
+        <v>18.6</v>
       </c>
       <c r="V5" t="n">
-        <v>15.3</v>
+        <v>15.9</v>
       </c>
       <c r="W5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X5" t="n">
         <v>6.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.2</v>
+        <v>22.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
         <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
         <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR5" t="n">
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW5" t="n">
         <v>9</v>
       </c>
-      <c r="AU5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AV5" t="n">
+      <c r="AX5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>19</v>
       </c>
-      <c r="AW5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY5" t="n">
+      <c r="BA5" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB5" t="n">
         <v>22</v>
       </c>
-      <c r="AZ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA5" t="n">
+      <c r="BC5" t="n">
         <v>16</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>25</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,160 +1461,160 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.833</v>
+        <v>0.714</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>77.8</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.473</v>
+        <v>0.467</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>18.2</v>
+        <v>17.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.358</v>
+        <v>0.339</v>
       </c>
       <c r="O6" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="P6" t="n">
-        <v>28.2</v>
+        <v>28.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.775</v>
+        <v>0.767</v>
       </c>
       <c r="R6" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="S6" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="T6" t="n">
         <v>41</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="V6" t="n">
-        <v>14.2</v>
+        <v>15.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.5</v>
+        <v>22.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>102</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL6" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
         <v>4</v>
       </c>
       <c r="AP6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR6" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
         <v>18</v>
       </c>
       <c r="AU6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AW6" t="n">
         <v>12</v>
       </c>
       <c r="AX6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BB6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC6" t="n">
         <v>5</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>3</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1721,22 +1721,22 @@
         <v>-2.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
         <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>4</v>
@@ -1748,13 +1748,13 @@
         <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN7" t="n">
         <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP7" t="n">
         <v>28</v>
@@ -1766,10 +1766,10 @@
         <v>24</v>
       </c>
       <c r="AS7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
         <v>13</v>
@@ -1784,19 +1784,19 @@
         <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
         <v>12</v>
       </c>
       <c r="BA7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1903,25 +1903,25 @@
         <v>0.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
       </c>
       <c r="AF8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG8" t="n">
         <v>13</v>
       </c>
-      <c r="AG8" t="n">
-        <v>14</v>
-      </c>
       <c r="AH8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
         <v>19</v>
@@ -1939,10 +1939,10 @@
         <v>1</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>22</v>
@@ -1951,19 +1951,19 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1978,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -2085,13 +2085,13 @@
         <v>3.3</v>
       </c>
       <c r="AD9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE9" t="n">
         <v>7</v>
       </c>
-      <c r="AE9" t="n">
-        <v>6</v>
-      </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG9" t="n">
         <v>7</v>
@@ -2100,16 +2100,16 @@
         <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM9" t="n">
         <v>18</v>
@@ -2121,7 +2121,7 @@
         <v>16</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
         <v>7</v>
@@ -2133,10 +2133,10 @@
         <v>21</v>
       </c>
       <c r="AT9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>6</v>
@@ -2145,16 +2145,16 @@
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB9" t="n">
         <v>12</v>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="n">
         <v>26</v>
@@ -2300,7 +2300,7 @@
         <v>28</v>
       </c>
       <c r="AO10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP10" t="n">
         <v>3</v>
@@ -2318,10 +2318,10 @@
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW10" t="n">
         <v>9</v>
@@ -2339,10 +2339,10 @@
         <v>1</v>
       </c>
       <c r="BB10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2452,55 +2452,55 @@
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI11" t="n">
         <v>27</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV11" t="n">
         <v>9</v>
@@ -2518,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
         <v>24</v>
@@ -2631,37 +2631,37 @@
         <v>2.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
         <v>11</v>
       </c>
       <c r="AI12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>14</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>15</v>
       </c>
       <c r="AK12" t="n">
         <v>10</v>
       </c>
       <c r="AL12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
         <v>21</v>
@@ -2673,16 +2673,16 @@
         <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT12" t="n">
         <v>9</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AU12" t="n">
         <v>10</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>11</v>
       </c>
       <c r="AV12" t="n">
         <v>28</v>
@@ -2691,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
         <v>29</v>
@@ -2700,7 +2700,7 @@
         <v>22</v>
       </c>
       <c r="BA12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
         <v>9</v>
@@ -2825,22 +2825,22 @@
         <v>29</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN13" t="n">
         <v>23</v>
@@ -2849,40 +2849,40 @@
         <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
         <v>27</v>
       </c>
       <c r="AR13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT13" t="n">
         <v>17</v>
       </c>
       <c r="AU13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV13" t="n">
         <v>23</v>
       </c>
       <c r="AW13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="n">
         <v>18</v>
       </c>
       <c r="AZ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2917,10 +2917,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2932,73 +2932,73 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J14" t="n">
-        <v>82.8</v>
+        <v>82</v>
       </c>
       <c r="K14" t="n">
-        <v>0.45</v>
+        <v>0.454</v>
       </c>
       <c r="L14" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>17</v>
       </c>
       <c r="N14" t="n">
-        <v>0.44</v>
+        <v>0.471</v>
       </c>
       <c r="O14" t="n">
-        <v>26.8</v>
+        <v>24.4</v>
       </c>
       <c r="P14" t="n">
-        <v>36</v>
+        <v>32.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.743</v>
+        <v>0.753</v>
       </c>
       <c r="R14" t="n">
-        <v>14.5</v>
+        <v>13.4</v>
       </c>
       <c r="S14" t="n">
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="T14" t="n">
-        <v>52</v>
+        <v>51.4</v>
       </c>
       <c r="U14" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="V14" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="X14" t="n">
         <v>6.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>25.5</v>
+        <v>23.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.5</v>
+        <v>106.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>23</v>
+        <v>22.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -3016,28 +3016,28 @@
         <v>8</v>
       </c>
       <c r="AK14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL14" t="n">
         <v>4</v>
       </c>
       <c r="AM14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -3046,25 +3046,25 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>4</v>
       </c>
-      <c r="AY14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>5</v>
-      </c>
       <c r="BA14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3183,10 +3183,10 @@
         <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
         <v>11</v>
@@ -3195,7 +3195,7 @@
         <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
@@ -3213,13 +3213,13 @@
         <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS15" t="n">
         <v>5</v>
@@ -3237,7 +3237,7 @@
         <v>15</v>
       </c>
       <c r="AX15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>23</v>
@@ -3246,13 +3246,13 @@
         <v>24</v>
       </c>
       <c r="BA15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
         <v>27</v>
       </c>
       <c r="BC15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3359,40 +3359,40 @@
         <v>6</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
       </c>
       <c r="AF16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG16" t="n">
         <v>13</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>14</v>
       </c>
       <c r="AH16" t="n">
         <v>11</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>20</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>9</v>
       </c>
       <c r="AM16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
         <v>9</v>
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY16" t="n">
         <v>2</v>
@@ -3431,7 +3431,7 @@
         <v>11</v>
       </c>
       <c r="BB16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC16" t="n">
         <v>7</v>
@@ -3463,106 +3463,106 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
       <c r="H17" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I17" t="n">
         <v>36.7</v>
       </c>
       <c r="J17" t="n">
-        <v>82.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.446</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M17" t="n">
         <v>13.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.366</v>
+        <v>0.375</v>
       </c>
       <c r="O17" t="n">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>25.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.702</v>
+        <v>0.708</v>
       </c>
       <c r="R17" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="S17" t="n">
-        <v>31.7</v>
+        <v>29.9</v>
       </c>
       <c r="T17" t="n">
-        <v>43</v>
+        <v>41.4</v>
       </c>
       <c r="U17" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="V17" t="n">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>13</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3571,52 +3571,52 @@
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
         <v>22</v>
       </c>
       <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT17" t="n">
         <v>16</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>11</v>
       </c>
       <c r="AU17" t="n">
         <v>5</v>
       </c>
       <c r="AV17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW17" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>29</v>
       </c>
       <c r="BA17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
         <v>19</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3723,7 +3723,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>26</v>
@@ -3750,7 +3750,7 @@
         <v>23</v>
       </c>
       <c r="AM18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN18" t="n">
         <v>21</v>
@@ -3759,13 +3759,13 @@
         <v>15</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>4</v>
       </c>
       <c r="AR18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS18" t="n">
         <v>27</v>
@@ -3786,10 +3786,10 @@
         <v>21</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA18" t="n">
         <v>19</v>
@@ -3798,7 +3798,7 @@
         <v>10</v>
       </c>
       <c r="BC18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3905,16 +3905,16 @@
         <v>-7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
         <v>11</v>
@@ -3923,31 +3923,31 @@
         <v>28</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN19" t="n">
         <v>24</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS19" t="n">
         <v>22</v>
@@ -3956,7 +3956,7 @@
         <v>20</v>
       </c>
       <c r="AU19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV19" t="n">
         <v>8</v>
@@ -3965,7 +3965,7 @@
         <v>25</v>
       </c>
       <c r="AX19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY19" t="n">
         <v>24</v>
@@ -4087,13 +4087,13 @@
         <v>5</v>
       </c>
       <c r="AD20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE20" t="n">
         <v>7</v>
       </c>
-      <c r="AE20" t="n">
-        <v>6</v>
-      </c>
       <c r="AF20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG20" t="n">
         <v>7</v>
@@ -4105,7 +4105,7 @@
         <v>21</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
         <v>7</v>
@@ -4123,10 +4123,10 @@
         <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
         <v>25</v>
@@ -4269,13 +4269,13 @@
         <v>-2.5</v>
       </c>
       <c r="AD21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE21" t="n">
         <v>7</v>
       </c>
-      <c r="AE21" t="n">
-        <v>6</v>
-      </c>
       <c r="AF21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG21" t="n">
         <v>7</v>
@@ -4299,22 +4299,22 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
         <v>22</v>
       </c>
       <c r="AQ21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR21" t="n">
         <v>19</v>
       </c>
-      <c r="AR21" t="n">
-        <v>20</v>
-      </c>
       <c r="AS21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT21" t="n">
         <v>19</v>
@@ -4323,16 +4323,16 @@
         <v>4</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ21" t="n">
         <v>10</v>
@@ -4451,7 +4451,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
@@ -4466,7 +4466,7 @@
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ22" t="n">
         <v>6</v>
@@ -4481,43 +4481,43 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
         <v>9</v>
       </c>
       <c r="AS22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU22" t="n">
         <v>30</v>
       </c>
       <c r="AV22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX22" t="n">
         <v>18</v>
       </c>
       <c r="AY22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
         <v>28</v>
@@ -4633,13 +4633,13 @@
         <v>6.7</v>
       </c>
       <c r="AD23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE23" t="n">
         <v>7</v>
       </c>
-      <c r="AE23" t="n">
-        <v>6</v>
-      </c>
       <c r="AF23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG23" t="n">
         <v>7</v>
@@ -4648,7 +4648,7 @@
         <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
         <v>21</v>
@@ -4657,7 +4657,7 @@
         <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
@@ -4669,25 +4669,25 @@
         <v>18</v>
       </c>
       <c r="AP23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
         <v>6</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>11</v>
@@ -4696,19 +4696,19 @@
         <v>1</v>
       </c>
       <c r="AY23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ23" t="n">
         <v>8</v>
       </c>
       <c r="BA23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB23" t="n">
         <v>12</v>
       </c>
       <c r="BC23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4815,16 +4815,16 @@
         <v>2</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH24" t="n">
         <v>11</v>
@@ -4848,19 +4848,19 @@
         <v>9</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>24</v>
       </c>
       <c r="AQ24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR24" t="n">
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT24" t="n">
         <v>2</v>
@@ -4878,7 +4878,7 @@
         <v>18</v>
       </c>
       <c r="AY24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
         <v>3</v>
@@ -4887,7 +4887,7 @@
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC24" t="n">
         <v>12</v>
@@ -5000,19 +5000,19 @@
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH25" t="n">
         <v>11</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>30</v>
@@ -5036,7 +5036,7 @@
         <v>4</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
         <v>30</v>
@@ -5060,13 +5060,13 @@
         <v>17</v>
       </c>
       <c r="AY25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ25" t="n">
         <v>7</v>
       </c>
       <c r="BA25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB25" t="n">
         <v>2</v>
@@ -5101,160 +5101,160 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
-        <v>49</v>
+        <v>48.8</v>
       </c>
       <c r="I26" t="n">
-        <v>36.4</v>
+        <v>35.2</v>
       </c>
       <c r="J26" t="n">
-        <v>79.59999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.457</v>
+        <v>0.438</v>
       </c>
       <c r="L26" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>19.4</v>
+        <v>20.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.392</v>
+        <v>0.397</v>
       </c>
       <c r="O26" t="n">
-        <v>17.6</v>
+        <v>16</v>
       </c>
       <c r="P26" t="n">
-        <v>22.4</v>
+        <v>21</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.786</v>
+        <v>0.762</v>
       </c>
       <c r="R26" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="S26" t="n">
-        <v>24.8</v>
+        <v>25.8</v>
       </c>
       <c r="T26" t="n">
-        <v>38.6</v>
+        <v>39.5</v>
       </c>
       <c r="U26" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="V26" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="W26" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>98</v>
+        <v>94.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.2</v>
+        <v>-5.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
       </c>
       <c r="AF26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM26" t="n">
         <v>6</v>
       </c>
-      <c r="AG26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH26" t="n">
+      <c r="AN26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR26" t="n">
         <v>3</v>
       </c>
-      <c r="AI26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO26" t="n">
+      <c r="AS26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AT26" t="n">
         <v>23</v>
       </c>
-      <c r="AP26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>25</v>
-      </c>
       <c r="AU26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="BC26" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5367,10 +5367,10 @@
         <v>13</v>
       </c>
       <c r="AF27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH27" t="n">
         <v>11</v>
@@ -5412,10 +5412,10 @@
         <v>26</v>
       </c>
       <c r="AU27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW27" t="n">
         <v>26</v>
@@ -5424,7 +5424,7 @@
         <v>20</v>
       </c>
       <c r="AY27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ27" t="n">
         <v>24</v>
@@ -5433,7 +5433,7 @@
         <v>20</v>
       </c>
       <c r="BB27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5543,13 +5543,13 @@
         <v>-7</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>26</v>
       </c>
       <c r="AF28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG28" t="n">
         <v>26</v>
@@ -5564,13 +5564,13 @@
         <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM28" t="n">
         <v>7</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>6</v>
       </c>
       <c r="AN28" t="n">
         <v>8</v>
@@ -5588,13 +5588,13 @@
         <v>28</v>
       </c>
       <c r="AS28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU28" t="n">
         <v>15</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>16</v>
       </c>
       <c r="AV28" t="n">
         <v>1</v>
@@ -5606,7 +5606,7 @@
         <v>29</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
         <v>9</v>
@@ -5725,19 +5725,19 @@
         <v>0.7</v>
       </c>
       <c r="AD29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE29" t="n">
         <v>7</v>
       </c>
-      <c r="AE29" t="n">
-        <v>6</v>
-      </c>
       <c r="AF29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG29" t="n">
         <v>7</v>
       </c>
       <c r="AH29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI29" t="n">
         <v>21</v>
@@ -5746,16 +5746,16 @@
         <v>28</v>
       </c>
       <c r="AK29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>24</v>
       </c>
       <c r="AN29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO29" t="n">
         <v>18</v>
@@ -5770,7 +5770,7 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT29" t="n">
         <v>30</v>
@@ -5785,10 +5785,10 @@
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ29" t="n">
         <v>1</v>
@@ -5797,7 +5797,7 @@
         <v>22</v>
       </c>
       <c r="BB29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC29" t="n">
         <v>14</v>
@@ -5907,16 +5907,16 @@
         <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF30" t="n">
         <v>3</v>
       </c>
       <c r="AG30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH30" t="n">
         <v>11</v>
@@ -5937,31 +5937,31 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>12</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW30" t="n">
         <v>6</v>
@@ -5970,19 +5970,19 @@
         <v>25</v>
       </c>
       <c r="AY30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
         <v>12</v>
       </c>
       <c r="BA30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -6089,7 +6089,7 @@
         <v>-11.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6104,10 +6104,10 @@
         <v>3</v>
       </c>
       <c r="AI31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
         <v>13</v>
@@ -6122,13 +6122,13 @@
         <v>30</v>
       </c>
       <c r="AO31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
         <v>26</v>
@@ -6137,13 +6137,13 @@
         <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW31" t="n">
         <v>21</v>
@@ -6158,10 +6158,10 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>

--- a/Team-Data/2008-09/11-10-2008-09.xlsx
+++ b/Team-Data/2008-09/11-10-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>10.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF2" t="n">
         <v>1</v>
@@ -759,10 +826,10 @@
         <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK2" t="n">
         <v>17</v>
@@ -771,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="AM2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
         <v>7</v>
@@ -783,13 +850,13 @@
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS2" t="n">
         <v>7</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>6</v>
       </c>
       <c r="AT2" t="n">
         <v>5</v>
@@ -798,25 +865,25 @@
         <v>12</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -863,70 +930,70 @@
         <v>48</v>
       </c>
       <c r="I3" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="O3" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="S3" t="n">
         <v>34</v>
       </c>
-      <c r="J3" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="M3" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="O3" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="P3" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.751</v>
-      </c>
-      <c r="R3" t="n">
-        <v>11</v>
-      </c>
-      <c r="S3" t="n">
-        <v>35.1</v>
-      </c>
       <c r="T3" t="n">
-        <v>46.1</v>
+        <v>45.7</v>
       </c>
       <c r="U3" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V3" t="n">
-        <v>17.7</v>
+        <v>18.6</v>
       </c>
       <c r="W3" t="n">
-        <v>8.9</v>
+        <v>9.6</v>
       </c>
       <c r="X3" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA3" t="n">
-        <v>25.1</v>
+        <v>25.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.90000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,64 +1008,64 @@
         <v>11</v>
       </c>
       <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>24</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>20</v>
-      </c>
       <c r="AR3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AS3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT3" t="n">
         <v>4</v>
       </c>
       <c r="AU3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AV3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
       </c>
       <c r="AZ3" t="n">
+        <v>27</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB3" t="n">
         <v>25</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>23</v>
       </c>
       <c r="BC3" t="n">
         <v>5</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
@@ -1117,7 +1184,7 @@
         <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
         <v>11</v>
@@ -1138,16 +1205,16 @@
         <v>28</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR4" t="n">
         <v>10</v>
@@ -1162,7 +1229,7 @@
         <v>27</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
         <v>17</v>
@@ -1174,10 +1241,10 @@
         <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -1212,160 +1279,160 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>0.333</v>
+        <v>0.429</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>33.7</v>
+        <v>33.9</v>
       </c>
       <c r="J5" t="n">
-        <v>82.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.408</v>
+        <v>0.42</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
-        <v>15</v>
+        <v>14.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.378</v>
+        <v>0.382</v>
       </c>
       <c r="O5" t="n">
-        <v>20.2</v>
+        <v>22</v>
       </c>
       <c r="P5" t="n">
-        <v>25.3</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.796</v>
+        <v>0.786</v>
       </c>
       <c r="R5" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="S5" t="n">
-        <v>30.7</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>43.5</v>
+        <v>43</v>
       </c>
       <c r="U5" t="n">
-        <v>17.2</v>
+        <v>18.6</v>
       </c>
       <c r="V5" t="n">
-        <v>15.3</v>
+        <v>15.9</v>
       </c>
       <c r="W5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X5" t="n">
         <v>6.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.2</v>
+        <v>22.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.5</v>
+        <v>-0.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
         <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL5" t="n">
         <v>17</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
         <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR5" t="n">
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW5" t="n">
         <v>9</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
       </c>
       <c r="AY5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB5" t="n">
         <v>22</v>
       </c>
-      <c r="AZ5" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>25</v>
-      </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -1394,160 +1461,160 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.833</v>
+        <v>0.714</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>35.7</v>
       </c>
       <c r="J6" t="n">
-        <v>77.8</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.473</v>
+        <v>0.467</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>18.2</v>
+        <v>17.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.358</v>
+        <v>0.339</v>
       </c>
       <c r="O6" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="P6" t="n">
-        <v>28.2</v>
+        <v>28.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.775</v>
+        <v>0.767</v>
       </c>
       <c r="R6" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="S6" t="n">
-        <v>29.7</v>
+        <v>30.1</v>
       </c>
       <c r="T6" t="n">
         <v>41</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="V6" t="n">
-        <v>14.2</v>
+        <v>15.3</v>
       </c>
       <c r="W6" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>6.8</v>
+        <v>6.1</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.5</v>
+        <v>22.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>102</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH6" t="n">
         <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AL6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
         <v>4</v>
       </c>
       <c r="AP6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
         <v>18</v>
       </c>
       <c r="AU6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AW6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA6" t="n">
         <v>13</v>
       </c>
-      <c r="AX6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AY6" t="n">
+      <c r="BB6" t="n">
         <v>8</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>17</v>
-      </c>
-      <c r="BB6" t="n">
+      <c r="BC6" t="n">
         <v>5</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>3</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
         <v>20</v>
@@ -1663,31 +1730,31 @@
         <v>18</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
         <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
         <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN7" t="n">
         <v>25</v>
       </c>
       <c r="AO7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP7" t="n">
         <v>28</v>
@@ -1696,19 +1763,19 @@
         <v>5</v>
       </c>
       <c r="AR7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
         <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW7" t="n">
         <v>17</v>
@@ -1720,13 +1787,13 @@
         <v>8</v>
       </c>
       <c r="AZ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC7" t="n">
         <v>20</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>0.3</v>
       </c>
       <c r="AD8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
         <v>12</v>
       </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>11</v>
-      </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>4</v>
@@ -1854,13 +1921,13 @@
         <v>18</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
         <v>19</v>
       </c>
       <c r="AL8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM8" t="n">
         <v>20</v>
@@ -1872,10 +1939,10 @@
         <v>1</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AR8" t="n">
         <v>22</v>
@@ -1887,16 +1954,16 @@
         <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>3.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG9" t="n">
         <v>7</v>
@@ -2036,46 +2103,46 @@
         <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
         <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AM9" t="n">
         <v>18</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
         <v>7</v>
       </c>
       <c r="AR9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS9" t="n">
         <v>21</v>
       </c>
       <c r="AT9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>6</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
         <v>9</v>
@@ -2084,16 +2151,16 @@
         <v>6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BC9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-3.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>20</v>
       </c>
       <c r="AF10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
         <v>25</v>
@@ -2215,7 +2282,7 @@
         <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
         <v>1</v>
@@ -2233,7 +2300,7 @@
         <v>28</v>
       </c>
       <c r="AO10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP10" t="n">
         <v>3</v>
@@ -2245,22 +2312,22 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW10" t="n">
         <v>9</v>
       </c>
       <c r="AX10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY10" t="n">
         <v>27</v>
@@ -2272,10 +2339,10 @@
         <v>1</v>
       </c>
       <c r="BB10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -2382,43 +2449,43 @@
         <v>1</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
         <v>7</v>
       </c>
       <c r="AI11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
         <v>27</v>
       </c>
       <c r="AL11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP11" t="n">
         <v>15</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>14</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -2427,19 +2494,19 @@
         <v>19</v>
       </c>
       <c r="AS11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU11" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AV11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2448,10 +2515,10 @@
         <v>28</v>
       </c>
       <c r="AZ11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
         <v>24</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -2486,160 +2553,160 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H12" t="n">
         <v>48</v>
       </c>
       <c r="I12" t="n">
-        <v>37.2</v>
+        <v>36.4</v>
       </c>
       <c r="J12" t="n">
-        <v>81.3</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.457</v>
+        <v>0.452</v>
       </c>
       <c r="L12" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
-        <v>21.8</v>
+        <v>23.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.336</v>
+        <v>0.342</v>
       </c>
       <c r="O12" t="n">
-        <v>19</v>
+        <v>18.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>23.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.786</v>
+        <v>0.802</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.8</v>
       </c>
       <c r="S12" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="T12" t="n">
-        <v>43</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
         <v>21</v>
       </c>
       <c r="V12" t="n">
-        <v>16.5</v>
+        <v>17.6</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="X12" t="n">
-        <v>6.3</v>
+        <v>5.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>22.3</v>
+        <v>22</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF12" t="n">
         <v>12</v>
       </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>11</v>
-      </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
         <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AJ12" t="n">
         <v>14</v>
       </c>
       <c r="AK12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS12" t="n">
         <v>8</v>
       </c>
-      <c r="AL12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ12" t="n">
+      <c r="AT12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU12" t="n">
         <v>10</v>
       </c>
-      <c r="AR12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT12" t="n">
+      <c r="AV12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX12" t="n">
         <v>11</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>29</v>
       </c>
       <c r="AZ12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>-14.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
       </c>
       <c r="AF13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG13" t="n">
         <v>29</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>28</v>
       </c>
       <c r="AH13" t="n">
         <v>7</v>
@@ -2764,7 +2831,7 @@
         <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
         <v>28</v>
@@ -2773,7 +2840,7 @@
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN13" t="n">
         <v>23</v>
@@ -2782,7 +2849,7 @@
         <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
         <v>27</v>
@@ -2791,34 +2858,34 @@
         <v>18</v>
       </c>
       <c r="AS13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AT13" t="n">
         <v>17</v>
       </c>
       <c r="AU13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="n">
         <v>18</v>
       </c>
       <c r="AZ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC13" t="n">
         <v>30</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -2850,10 +2917,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2865,73 +2932,73 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J14" t="n">
-        <v>82.8</v>
+        <v>82</v>
       </c>
       <c r="K14" t="n">
-        <v>0.45</v>
+        <v>0.454</v>
       </c>
       <c r="L14" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>17</v>
       </c>
       <c r="N14" t="n">
-        <v>0.44</v>
+        <v>0.471</v>
       </c>
       <c r="O14" t="n">
-        <v>26.8</v>
+        <v>24.4</v>
       </c>
       <c r="P14" t="n">
-        <v>36</v>
+        <v>32.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.743</v>
+        <v>0.753</v>
       </c>
       <c r="R14" t="n">
-        <v>14.5</v>
+        <v>13.4</v>
       </c>
       <c r="S14" t="n">
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="T14" t="n">
-        <v>52</v>
+        <v>51.4</v>
       </c>
       <c r="U14" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="V14" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W14" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="X14" t="n">
         <v>6.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>20</v>
+        <v>19.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>25.5</v>
+        <v>23.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.5</v>
+        <v>106.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>23</v>
+        <v>22.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -2949,28 +3016,28 @@
         <v>8</v>
       </c>
       <c r="AK14" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL14" t="n">
         <v>4</v>
       </c>
       <c r="AM14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
       </c>
       <c r="AP14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2979,25 +3046,25 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX14" t="n">
         <v>3</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -3032,160 +3099,160 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.375</v>
+        <v>0.429</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>33.3</v>
+        <v>32.6</v>
       </c>
       <c r="J15" t="n">
-        <v>78.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.424</v>
+        <v>0.421</v>
       </c>
       <c r="L15" t="n">
         <v>4.3</v>
       </c>
       <c r="M15" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="N15" t="n">
-        <v>0.304</v>
+        <v>0.309</v>
       </c>
       <c r="O15" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="P15" t="n">
-        <v>26.9</v>
+        <v>27.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.758</v>
+        <v>0.742</v>
       </c>
       <c r="R15" t="n">
         <v>11.3</v>
       </c>
       <c r="S15" t="n">
-        <v>32.1</v>
+        <v>32.7</v>
       </c>
       <c r="T15" t="n">
-        <v>43.4</v>
+        <v>44</v>
       </c>
       <c r="U15" t="n">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
       <c r="V15" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="X15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>91.09999999999999</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-2.9</v>
+        <v>-2.6</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AH15" t="n">
         <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
       </c>
       <c r="AL15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS15" t="n">
         <v>5</v>
       </c>
       <c r="AT15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AU15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV15" t="n">
         <v>22</v>
       </c>
       <c r="AW15" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AX15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
         <v>24</v>
       </c>
       <c r="BA15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
         <v>27</v>
       </c>
       <c r="BC15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -3214,136 +3281,136 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>35.6</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>78.09999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L16" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="M16" t="n">
-        <v>20.4</v>
+        <v>19.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.357</v>
+        <v>0.339</v>
       </c>
       <c r="O16" t="n">
-        <v>21.3</v>
+        <v>20.5</v>
       </c>
       <c r="P16" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.745</v>
+        <v>0.732</v>
       </c>
       <c r="R16" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="S16" t="n">
-        <v>28.1</v>
+        <v>29.2</v>
       </c>
       <c r="T16" t="n">
-        <v>38.6</v>
+        <v>39.8</v>
       </c>
       <c r="U16" t="n">
-        <v>19.9</v>
+        <v>20.7</v>
       </c>
       <c r="V16" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="W16" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF16" t="n">
         <v>12</v>
       </c>
-      <c r="W16" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="X16" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>11</v>
-      </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>11</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>9</v>
       </c>
       <c r="AM16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP16" t="n">
         <v>9</v>
       </c>
-      <c r="AP16" t="n">
-        <v>8</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AS16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AT16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU16" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3352,22 +3419,22 @@
         <v>1</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY16" t="n">
         <v>2</v>
       </c>
       <c r="AZ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB16" t="n">
         <v>7</v>
       </c>
-      <c r="BA16" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>9</v>
-      </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -3396,160 +3463,160 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.429</v>
       </c>
       <c r="H17" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I17" t="n">
         <v>36.7</v>
       </c>
       <c r="J17" t="n">
-        <v>82.2</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.446</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M17" t="n">
         <v>13.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.366</v>
+        <v>0.375</v>
       </c>
       <c r="O17" t="n">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>25.2</v>
+        <v>24.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.702</v>
+        <v>0.708</v>
       </c>
       <c r="R17" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="S17" t="n">
-        <v>31.7</v>
+        <v>29.9</v>
       </c>
       <c r="T17" t="n">
-        <v>43</v>
+        <v>41.4</v>
       </c>
       <c r="U17" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="V17" t="n">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.8</v>
+        <v>26.4</v>
       </c>
       <c r="AA17" t="n">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>96</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
       </c>
       <c r="AK17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
       </c>
       <c r="AM17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT17" t="n">
         <v>16</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>11</v>
       </c>
       <c r="AU17" t="n">
         <v>5</v>
       </c>
       <c r="AV17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>29</v>
       </c>
       <c r="BA17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
         <v>19</v>
       </c>
       <c r="BC17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -3656,13 +3723,13 @@
         <v>-5.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>26</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
         <v>27</v>
@@ -3683,34 +3750,34 @@
         <v>23</v>
       </c>
       <c r="AM18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN18" t="n">
         <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>4</v>
       </c>
       <c r="AR18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AS18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT18" t="n">
         <v>21</v>
       </c>
       <c r="AU18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3722,16 +3789,16 @@
         <v>20</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA18" t="n">
         <v>19</v>
       </c>
       <c r="BB18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="H19" t="n">
         <v>48</v>
@@ -3778,73 +3845,73 @@
         <v>32.8</v>
       </c>
       <c r="J19" t="n">
-        <v>78.7</v>
+        <v>80.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.417</v>
+        <v>0.409</v>
       </c>
       <c r="L19" t="n">
-        <v>6.8</v>
+        <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>19.5</v>
+        <v>18.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.35</v>
+        <v>0.304</v>
       </c>
       <c r="O19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P19" t="n">
-        <v>25.7</v>
+        <v>26.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.779</v>
+        <v>0.784</v>
       </c>
       <c r="R19" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S19" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="T19" t="n">
-        <v>40.5</v>
+        <v>40.8</v>
       </c>
       <c r="U19" t="n">
-        <v>17.7</v>
+        <v>17.4</v>
       </c>
       <c r="V19" t="n">
-        <v>14.2</v>
+        <v>13.2</v>
       </c>
       <c r="W19" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X19" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>26.5</v>
+        <v>26.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.5</v>
+        <v>21.2</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.5</v>
+        <v>92.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-7</v>
+        <v>-7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
         <v>20</v>
@@ -3853,67 +3920,67 @@
         <v>11</v>
       </c>
       <c r="AI19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK19" t="n">
         <v>29</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>26</v>
-      </c>
       <c r="AL19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO19" t="n">
         <v>10</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>15</v>
       </c>
       <c r="AP19" t="n">
         <v>13</v>
       </c>
       <c r="AQ19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AS19" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT19" t="n">
         <v>20</v>
       </c>
       <c r="AU19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV19" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX19" t="n">
         <v>13</v>
       </c>
       <c r="AY19" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
         <v>30</v>
       </c>
       <c r="BA19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB19" t="n">
         <v>26</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>5</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG20" t="n">
         <v>7</v>
@@ -4038,7 +4105,7 @@
         <v>21</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK20" t="n">
         <v>7</v>
@@ -4053,28 +4120,28 @@
         <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
         <v>25</v>
       </c>
       <c r="AS20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW20" t="n">
         <v>7</v>
@@ -4086,16 +4153,16 @@
         <v>3</v>
       </c>
       <c r="AZ20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG21" t="n">
         <v>7</v>
@@ -4235,13 +4302,13 @@
         <v>12</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4256,10 +4323,10 @@
         <v>4</v>
       </c>
       <c r="AV21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -4306,103 +4373,103 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.143</v>
+        <v>0.167</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="J22" t="n">
-        <v>84.40000000000001</v>
+        <v>83</v>
       </c>
       <c r="K22" t="n">
-        <v>0.404</v>
+        <v>0.408</v>
       </c>
       <c r="L22" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="M22" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.377</v>
+        <v>0.357</v>
       </c>
       <c r="O22" t="n">
-        <v>16.9</v>
+        <v>16</v>
       </c>
       <c r="P22" t="n">
-        <v>22.6</v>
+        <v>22</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.747</v>
+        <v>0.727</v>
       </c>
       <c r="R22" t="n">
-        <v>13.3</v>
+        <v>12.3</v>
       </c>
       <c r="S22" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="T22" t="n">
-        <v>43.6</v>
+        <v>42.3</v>
       </c>
       <c r="U22" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="V22" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="X22" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>88</v>
+        <v>86.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>-7.4</v>
+        <v>-7.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>26</v>
       </c>
       <c r="AF22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH22" t="n">
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AK22" t="n">
         <v>30</v>
@@ -4414,52 +4481,52 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AO22" t="n">
         <v>26</v>
       </c>
       <c r="AP22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ22" t="n">
         <v>21</v>
       </c>
-      <c r="AR22" t="n">
-        <v>5</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>19</v>
-      </c>
       <c r="BA22" t="n">
+        <v>28</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>30</v>
+      </c>
+      <c r="BC22" t="n">
         <v>27</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>29</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>28</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -4488,130 +4555,130 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>0.571</v>
+        <v>0.667</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>35.1</v>
+        <v>35.7</v>
       </c>
       <c r="J23" t="n">
-        <v>78.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K23" t="n">
         <v>0.45</v>
       </c>
       <c r="L23" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M23" t="n">
-        <v>25.1</v>
+        <v>25.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.313</v>
+        <v>0.316</v>
       </c>
       <c r="O23" t="n">
-        <v>20.3</v>
+        <v>19</v>
       </c>
       <c r="P23" t="n">
-        <v>29.9</v>
+        <v>28.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.679</v>
+        <v>0.667</v>
       </c>
       <c r="R23" t="n">
-        <v>12.4</v>
+        <v>12.8</v>
       </c>
       <c r="S23" t="n">
-        <v>31.9</v>
+        <v>31.5</v>
       </c>
       <c r="T23" t="n">
         <v>44.3</v>
       </c>
       <c r="U23" t="n">
-        <v>17.7</v>
+        <v>18.2</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="X23" t="n">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>23.9</v>
+        <v>23.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>98.40000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>4.7</v>
+        <v>6.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF23" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AH23" t="n">
         <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT23" t="n">
         <v>6</v>
@@ -4620,28 +4687,28 @@
         <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AX23" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC23" t="n">
         <v>4</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>13</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>8</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>2</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4757,7 +4824,7 @@
         <v>18</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH24" t="n">
         <v>11</v>
@@ -4766,7 +4833,7 @@
         <v>4</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
         <v>14</v>
@@ -4775,25 +4842,25 @@
         <v>18</v>
       </c>
       <c r="AM24" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
         <v>9</v>
       </c>
       <c r="AO24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP24" t="n">
         <v>24</v>
       </c>
-      <c r="AP24" t="n">
-        <v>25</v>
-      </c>
       <c r="AQ24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR24" t="n">
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT24" t="n">
         <v>2</v>
@@ -4802,7 +4869,7 @@
         <v>21</v>
       </c>
       <c r="AV24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW24" t="n">
         <v>27</v>
@@ -4814,13 +4881,13 @@
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC24" t="n">
         <v>12</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -4852,64 +4919,64 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="n">
         <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>0.75</v>
+        <v>0.714</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J25" t="n">
-        <v>70.90000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.515</v>
+        <v>0.519</v>
       </c>
       <c r="L25" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M25" t="n">
-        <v>16.9</v>
+        <v>16.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.4</v>
+        <v>0.404</v>
       </c>
       <c r="O25" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="P25" t="n">
-        <v>30.1</v>
+        <v>30.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.78</v>
+        <v>0.765</v>
       </c>
       <c r="R25" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="S25" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T25" t="n">
         <v>38.4</v>
       </c>
       <c r="U25" t="n">
-        <v>21.5</v>
+        <v>22.3</v>
       </c>
       <c r="V25" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="W25" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="X25" t="n">
         <v>4.9</v>
@@ -4918,13 +4985,13 @@
         <v>3.9</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA25" t="n">
         <v>23.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>103.3</v>
+        <v>102.7</v>
       </c>
       <c r="AC25" t="n">
         <v>4.6</v>
@@ -4933,19 +5000,19 @@
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH25" t="n">
         <v>11</v>
       </c>
       <c r="AI25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
         <v>30</v>
@@ -4954,13 +5021,13 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
         <v>3</v>
@@ -4969,7 +5036,7 @@
         <v>4</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AR25" t="n">
         <v>30</v>
@@ -4981,25 +5048,25 @@
         <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AW25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB25" t="n">
         <v>2</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -5037,157 +5104,157 @@
         <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>0.667</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>48.8</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>35.2</v>
       </c>
       <c r="J26" t="n">
-        <v>79.7</v>
+        <v>80.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.454</v>
+        <v>0.438</v>
       </c>
       <c r="L26" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>20.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.412</v>
+        <v>0.397</v>
       </c>
       <c r="O26" t="n">
-        <v>19.2</v>
+        <v>16</v>
       </c>
       <c r="P26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.799</v>
+        <v>0.762</v>
       </c>
       <c r="R26" t="n">
-        <v>12.3</v>
+        <v>13.7</v>
       </c>
       <c r="S26" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="T26" t="n">
-        <v>37.8</v>
+        <v>39.5</v>
       </c>
       <c r="U26" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V26" t="n">
-        <v>10.3</v>
+        <v>11.7</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>23.3</v>
+        <v>21.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.8</v>
+        <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.3</v>
+        <v>94.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>-0.7</v>
+        <v>-5.2</v>
       </c>
       <c r="AD26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF26" t="n">
         <v>12</v>
       </c>
-      <c r="AE26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>6</v>
-      </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>4</v>
       </c>
       <c r="AI26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK26" t="n">
         <v>18</v>
       </c>
-      <c r="AK26" t="n">
-        <v>10</v>
-      </c>
       <c r="AL26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM26" t="n">
         <v>6</v>
       </c>
-      <c r="AM26" t="n">
-        <v>10</v>
-      </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AQ26" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AR26" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AU26" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW26" t="n">
         <v>19</v>
       </c>
       <c r="AX26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>25</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>23</v>
+      </c>
+      <c r="BC26" t="n">
         <v>22</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>17</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-6.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF27" t="n">
         <v>18</v>
       </c>
       <c r="AG27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH27" t="n">
         <v>11</v>
@@ -5312,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK27" t="n">
         <v>3</v>
@@ -5324,13 +5391,13 @@
         <v>19</v>
       </c>
       <c r="AN27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP27" t="n">
         <v>20</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>22</v>
       </c>
       <c r="AQ27" t="n">
         <v>3</v>
@@ -5339,16 +5406,16 @@
         <v>27</v>
       </c>
       <c r="AS27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AV27" t="n">
         <v>25</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>27</v>
       </c>
       <c r="AW27" t="n">
         <v>26</v>
@@ -5360,13 +5427,13 @@
         <v>13</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
         <v>20</v>
       </c>
       <c r="BB27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7</v>
       </c>
       <c r="AD28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>26</v>
@@ -5497,10 +5564,10 @@
         <v>16</v>
       </c>
       <c r="AK28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM28" t="n">
         <v>7</v>
@@ -5515,22 +5582,22 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
       </c>
       <c r="AS28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU28" t="n">
         <v>15</v>
       </c>
-      <c r="AT28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>14</v>
-      </c>
       <c r="AV28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW28" t="n">
         <v>30</v>
@@ -5542,13 +5609,13 @@
         <v>12</v>
       </c>
       <c r="AZ28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA28" t="n">
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -5580,121 +5647,121 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.571</v>
+        <v>0.667</v>
       </c>
       <c r="H29" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>34.7</v>
+        <v>35</v>
       </c>
       <c r="J29" t="n">
-        <v>75.09999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.462</v>
+        <v>0.468</v>
       </c>
       <c r="L29" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="M29" t="n">
-        <v>14.9</v>
+        <v>14.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.442</v>
+        <v>0.447</v>
       </c>
       <c r="O29" t="n">
-        <v>18.1</v>
+        <v>19</v>
       </c>
       <c r="P29" t="n">
-        <v>22</v>
+        <v>22.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.825</v>
+        <v>0.838</v>
       </c>
       <c r="R29" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="S29" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="T29" t="n">
-        <v>36.7</v>
+        <v>36.3</v>
       </c>
       <c r="U29" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="V29" t="n">
-        <v>13.4</v>
+        <v>13</v>
       </c>
       <c r="W29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="X29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>95.3</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF29" t="n">
         <v>5</v>
       </c>
-      <c r="X29" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>11</v>
-      </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
         <v>28</v>
       </c>
       <c r="AK29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO29" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
@@ -5703,7 +5770,7 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT29" t="n">
         <v>30</v>
@@ -5712,28 +5779,28 @@
         <v>2</v>
       </c>
       <c r="AV29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AY29" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BA29" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB29" t="n">
         <v>21</v>
       </c>
-      <c r="BB29" t="n">
-        <v>22</v>
-      </c>
       <c r="BC29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>8</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF30" t="n">
         <v>3</v>
@@ -5858,7 +5925,7 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
@@ -5870,52 +5937,52 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
         <v>13</v>
       </c>
       <c r="AP30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>12</v>
       </c>
-      <c r="AQ30" t="n">
-        <v>15</v>
-      </c>
       <c r="AR30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX30" t="n">
         <v>25</v>
       </c>
       <c r="AY30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB30" t="n">
         <v>11</v>
       </c>
-      <c r="BA30" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>12</v>
-      </c>
       <c r="BC30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-11.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
@@ -6037,10 +6104,10 @@
         <v>3</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK31" t="n">
         <v>13</v>
@@ -6049,7 +6116,7 @@
         <v>25</v>
       </c>
       <c r="AM31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN31" t="n">
         <v>30</v>
@@ -6061,22 +6128,22 @@
         <v>7</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
         <v>26</v>
       </c>
       <c r="AS31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU31" t="n">
         <v>19</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW31" t="n">
         <v>21</v>
@@ -6091,10 +6158,10 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-10-2008-09</t>
+          <t>2008-11-10</t>
         </is>
       </c>
     </row>
